--- a/biology/Zoologie/Cordonbleu_violacé/Cordonbleu_violacé.xlsx
+++ b/biology/Zoologie/Cordonbleu_violacé/Cordonbleu_violacé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cordonbleu_violac%C3%A9</t>
+          <t>Cordonbleu_violacé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uraeginthus ianthinogaster
 Le Cordonbleu violacé (Uraeginthus ianthinogaster) est une espèce de passereau appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cordonbleu_violac%C3%A9</t>
+          <t>Cordonbleu_violacé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa longueur moyenne est de 13,3 cm. Les deux sexes à tous les âges ont une queue noire et les adultes ont un bec rouge. Le mâle a la tête et le cou cannelle avec une tache bleue qui entoure les yeux. Le croupion est bleu violacé et les parties inférieures sont bleu-violet avec des taches rousses variables. La femelle est plus petite et le plus souvent brun cannelle avec du blanc sur le dessous et une tache bleu argenté au niveau des yeux. Les juvéniles sont comme les femelles, mais surtout fauve brun avec un bec brun-roux.
 Son chant (au Kenya) est décrit comme un aigu, mince chit-cheet tsereea-ee-ee tsit-tsit ou cheerer cheet tsee-tsee sur-chit.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cordonbleu_violac%C3%A9</t>
+          <t>Cordonbleu_violacé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Éthiopie, au Kenya, en Ouganda, en Somalie, au Soudan et en Tanzanie.
 </t>
